--- a/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Fallo Cardiaco.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Fallo Cardiaco.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21.57641514411767</v>
+        <v>21.63579072432197</v>
       </c>
       <c r="B2" t="n">
-        <v>17.24261910561464</v>
+        <v>17.17264978995248</v>
       </c>
       <c r="C2" t="n">
-        <v>25.96766126001851</v>
+        <v>25.96870934173277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20.75694341366744</v>
+        <v>20.70305128798127</v>
       </c>
       <c r="B3" t="n">
-        <v>14.7952372325354</v>
+        <v>14.91734937250084</v>
       </c>
       <c r="C3" t="n">
-        <v>26.89275479160121</v>
+        <v>26.79243267464477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20.52100599698236</v>
+        <v>20.47224903958168</v>
       </c>
       <c r="B4" t="n">
-        <v>15.26805240732206</v>
+        <v>15.03354342944503</v>
       </c>
       <c r="C4" t="n">
-        <v>26.26394592514333</v>
+        <v>26.53866393881437</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24.88831244295186</v>
+        <v>25.07756018209518</v>
       </c>
       <c r="B5" t="n">
-        <v>17.2096723263605</v>
+        <v>17.23966322089311</v>
       </c>
       <c r="C5" t="n">
-        <v>33.53330201413781</v>
+        <v>33.38535189571672</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26.19597689897838</v>
+        <v>26.30259005123169</v>
       </c>
       <c r="B6" t="n">
-        <v>20.62238032201831</v>
+        <v>20.99772675760862</v>
       </c>
       <c r="C6" t="n">
-        <v>31.95959386941796</v>
+        <v>32.23333504973511</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19.3417395480341</v>
+        <v>19.2395070158974</v>
       </c>
       <c r="B7" t="n">
-        <v>15.74661537276545</v>
+        <v>15.56094316134581</v>
       </c>
       <c r="C7" t="n">
-        <v>23.02130594821442</v>
+        <v>22.97759726621279</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.79897265867538</v>
+        <v>9.758607296095168</v>
       </c>
       <c r="B8" t="n">
-        <v>4.585307206022425</v>
+        <v>4.572337952333323</v>
       </c>
       <c r="C8" t="n">
-        <v>15.53811521306294</v>
+        <v>15.48420273623262</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24.67198920163735</v>
+        <v>24.52047265564187</v>
       </c>
       <c r="B9" t="n">
-        <v>19.21621438157805</v>
+        <v>19.54869120689143</v>
       </c>
       <c r="C9" t="n">
-        <v>29.78736989374865</v>
+        <v>29.62870346239988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.12715741765959</v>
+        <v>10.04562654708925</v>
       </c>
       <c r="B10" t="n">
-        <v>4.870424423244512</v>
+        <v>4.874639802632513</v>
       </c>
       <c r="C10" t="n">
-        <v>16.96958638070442</v>
+        <v>16.566092765304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18.24475941572949</v>
+        <v>18.1973433473162</v>
       </c>
       <c r="B11" t="n">
-        <v>13.02840678702534</v>
+        <v>13.25037058664995</v>
       </c>
       <c r="C11" t="n">
-        <v>22.87455674701462</v>
+        <v>23.06925489301352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>27.03866441456172</v>
+        <v>27.02967906618417</v>
       </c>
       <c r="B12" t="n">
-        <v>21.17101384024263</v>
+        <v>21.00944182041341</v>
       </c>
       <c r="C12" t="n">
-        <v>32.85284538970705</v>
+        <v>33.03499597986732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.9684133845868</v>
+        <v>13.08656409466251</v>
       </c>
       <c r="B13" t="n">
-        <v>7.027046568541683</v>
+        <v>6.886715415386097</v>
       </c>
       <c r="C13" t="n">
-        <v>20.38187870469918</v>
+        <v>20.64969630535904</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15.15990631455955</v>
+        <v>14.92332544723742</v>
       </c>
       <c r="B14" t="n">
-        <v>9.740105312799853</v>
+        <v>9.756495689784401</v>
       </c>
       <c r="C14" t="n">
-        <v>20.45174061352371</v>
+        <v>20.63271830802748</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>28.99334904146319</v>
+        <v>29.10299263033501</v>
       </c>
       <c r="B15" t="n">
-        <v>21.94900327096878</v>
+        <v>21.87953785492587</v>
       </c>
       <c r="C15" t="n">
-        <v>38.00960269604028</v>
+        <v>37.90948306225241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>26.21716437256176</v>
+        <v>26.34848384992639</v>
       </c>
       <c r="B16" t="n">
-        <v>19.998643432685</v>
+        <v>20.78918657120634</v>
       </c>
       <c r="C16" t="n">
-        <v>32.08852473052625</v>
+        <v>32.40085757335024</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>26.95039985596064</v>
+        <v>26.92823095490016</v>
       </c>
       <c r="B17" t="n">
-        <v>21.1780450957832</v>
+        <v>20.91611222597446</v>
       </c>
       <c r="C17" t="n">
-        <v>32.69139098098307</v>
+        <v>32.54737131527081</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20.3642591472535</v>
+        <v>20.24562036735332</v>
       </c>
       <c r="B18" t="n">
-        <v>14.24366768660444</v>
+        <v>13.78319719821131</v>
       </c>
       <c r="C18" t="n">
-        <v>26.26215018369738</v>
+        <v>26.62160544793439</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18.77589031722003</v>
+        <v>18.80334786968479</v>
       </c>
       <c r="B19" t="n">
-        <v>13.06882198891039</v>
+        <v>13.18515640161169</v>
       </c>
       <c r="C19" t="n">
-        <v>24.9235477046807</v>
+        <v>24.82297478523168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>29.64315865107683</v>
+        <v>29.58992741740598</v>
       </c>
       <c r="B20" t="n">
-        <v>23.31665144922086</v>
+        <v>22.90467894907736</v>
       </c>
       <c r="C20" t="n">
-        <v>35.8317199498385</v>
+        <v>35.7568351426146</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>28.98501556867314</v>
+        <v>29.18128709902766</v>
       </c>
       <c r="B21" t="n">
-        <v>22.15159194594237</v>
+        <v>21.85392684109442</v>
       </c>
       <c r="C21" t="n">
-        <v>36.74122862911592</v>
+        <v>37.18851797693458</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.30647672768685</v>
+        <v>10.56451300613945</v>
       </c>
       <c r="B22" t="n">
-        <v>5.049657770287068</v>
+        <v>4.702303892045861</v>
       </c>
       <c r="C22" t="n">
-        <v>18.09872295242083</v>
+        <v>17.57865338323183</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>31.20996186127529</v>
+        <v>31.22799584798681</v>
       </c>
       <c r="B23" t="n">
-        <v>22.73402463367082</v>
+        <v>22.93716838578001</v>
       </c>
       <c r="C23" t="n">
-        <v>40.82347568445412</v>
+        <v>40.44049242433699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>26.20447208916616</v>
+        <v>26.34424863221215</v>
       </c>
       <c r="B24" t="n">
-        <v>20.24136582368821</v>
+        <v>20.71442796138463</v>
       </c>
       <c r="C24" t="n">
-        <v>32.107734372917</v>
+        <v>32.62988860297703</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22.68613879475184</v>
+        <v>22.60926801062947</v>
       </c>
       <c r="B25" t="n">
-        <v>17.3582358152829</v>
+        <v>17.4090672753626</v>
       </c>
       <c r="C25" t="n">
-        <v>27.51493812309986</v>
+        <v>27.30860046120073</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28.8263199249561</v>
+        <v>29.04473888346227</v>
       </c>
       <c r="B26" t="n">
-        <v>21.81795924710837</v>
+        <v>22.1457075098416</v>
       </c>
       <c r="C26" t="n">
-        <v>36.06955154610682</v>
+        <v>36.32034412974819</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12.9754415622018</v>
+        <v>12.9727590119992</v>
       </c>
       <c r="B27" t="n">
-        <v>6.985889423438118</v>
+        <v>6.874612378818136</v>
       </c>
       <c r="C27" t="n">
-        <v>21.41876816115132</v>
+        <v>21.27482847456812</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20.39147380675642</v>
+        <v>20.42249345384324</v>
       </c>
       <c r="B28" t="n">
-        <v>16.32124753846436</v>
+        <v>16.32999567783657</v>
       </c>
       <c r="C28" t="n">
-        <v>24.49767104115752</v>
+        <v>24.31228631483254</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>32.6627030607408</v>
+        <v>32.28469923388152</v>
       </c>
       <c r="B29" t="n">
-        <v>23.4369851648563</v>
+        <v>22.78672834044227</v>
       </c>
       <c r="C29" t="n">
-        <v>41.33901490688676</v>
+        <v>41.38715332103755</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25.62887266012609</v>
+        <v>25.5643224126752</v>
       </c>
       <c r="B30" t="n">
-        <v>20.85172894443868</v>
+        <v>20.92225697363093</v>
       </c>
       <c r="C30" t="n">
-        <v>31.15215665470944</v>
+        <v>31.16730472899639</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14.19580122215669</v>
+        <v>14.22364776780775</v>
       </c>
       <c r="B31" t="n">
-        <v>9.550302759300948</v>
+        <v>9.069700886549185</v>
       </c>
       <c r="C31" t="n">
-        <v>19.74687869875181</v>
+        <v>20.27273505158202</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12.12284775625019</v>
+        <v>11.9912383611151</v>
       </c>
       <c r="B32" t="n">
-        <v>7.10902512378914</v>
+        <v>6.724831146663179</v>
       </c>
       <c r="C32" t="n">
-        <v>17.73504295676092</v>
+        <v>17.54209010921339</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15.05453010406583</v>
+        <v>14.90108117739871</v>
       </c>
       <c r="B33" t="n">
-        <v>9.675142050230191</v>
+        <v>9.784527622641269</v>
       </c>
       <c r="C33" t="n">
-        <v>20.61513202428149</v>
+        <v>20.59819368050134</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23.30192317976482</v>
+        <v>23.31559126682208</v>
       </c>
       <c r="B34" t="n">
-        <v>18.29102249100733</v>
+        <v>18.26855820413786</v>
       </c>
       <c r="C34" t="n">
-        <v>29.02611544013832</v>
+        <v>29.0365660872575</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>28.07616738853309</v>
+        <v>28.03538873014233</v>
       </c>
       <c r="B35" t="n">
-        <v>22.28553672126981</v>
+        <v>22.70945777714157</v>
       </c>
       <c r="C35" t="n">
-        <v>34.19862599644099</v>
+        <v>33.87922883820316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>19.31950684835524</v>
+        <v>19.26421954552482</v>
       </c>
       <c r="B36" t="n">
-        <v>15.41396579983745</v>
+        <v>15.38008130853053</v>
       </c>
       <c r="C36" t="n">
-        <v>23.00127124341834</v>
+        <v>22.9361467076763</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>31.23680532258995</v>
+        <v>31.1247967342051</v>
       </c>
       <c r="B37" t="n">
-        <v>23.33906411457922</v>
+        <v>23.88125828394762</v>
       </c>
       <c r="C37" t="n">
-        <v>39.7579263338806</v>
+        <v>39.33016966495096</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15.39386357099157</v>
+        <v>15.30417375195411</v>
       </c>
       <c r="B38" t="n">
-        <v>9.520407388953483</v>
+        <v>9.798207505718823</v>
       </c>
       <c r="C38" t="n">
-        <v>22.57788646009412</v>
+        <v>22.2977138269052</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>27.59426434288317</v>
+        <v>27.69083953003661</v>
       </c>
       <c r="B39" t="n">
-        <v>22.85815777903512</v>
+        <v>22.55457272277003</v>
       </c>
       <c r="C39" t="n">
-        <v>33.3199863742406</v>
+        <v>33.4192396935374</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>25.04100104286915</v>
+        <v>25.17647674168717</v>
       </c>
       <c r="B40" t="n">
-        <v>18.77054841309131</v>
+        <v>18.40364953345121</v>
       </c>
       <c r="C40" t="n">
-        <v>32.3191492362709</v>
+        <v>32.65529260606988</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>18.20161024530817</v>
+        <v>18.19517717317779</v>
       </c>
       <c r="B41" t="n">
-        <v>14.88895217563353</v>
+        <v>14.77968062922</v>
       </c>
       <c r="C41" t="n">
-        <v>21.90429848970759</v>
+        <v>21.85691225496999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18.20785164581774</v>
+        <v>18.18933494570941</v>
       </c>
       <c r="B42" t="n">
-        <v>13.22166658598164</v>
+        <v>13.32134815846064</v>
       </c>
       <c r="C42" t="n">
-        <v>23.36345595490935</v>
+        <v>23.36069320009562</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>25.62064911477803</v>
+        <v>25.5643224126752</v>
       </c>
       <c r="B43" t="n">
-        <v>20.84616747563643</v>
+        <v>20.92225697363093</v>
       </c>
       <c r="C43" t="n">
-        <v>31.14787601660266</v>
+        <v>31.16730472899639</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15.98655348152317</v>
+        <v>16.01514517925195</v>
       </c>
       <c r="B44" t="n">
-        <v>12.32275532229027</v>
+        <v>12.32129761222182</v>
       </c>
       <c r="C44" t="n">
-        <v>19.44156593589689</v>
+        <v>19.39032600296134</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>19.04322713665324</v>
+        <v>19.07194974413987</v>
       </c>
       <c r="B45" t="n">
-        <v>13.86513921646492</v>
+        <v>13.57937445145544</v>
       </c>
       <c r="C45" t="n">
-        <v>25.0915356842957</v>
+        <v>25.16900287873549</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>13.95575560601092</v>
+        <v>13.71176446213956</v>
       </c>
       <c r="B46" t="n">
-        <v>8.909140800577346</v>
+        <v>9.739883332439929</v>
       </c>
       <c r="C46" t="n">
-        <v>18.68421189253089</v>
+        <v>18.53428137365061</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10.83420811471587</v>
+        <v>10.94437837105579</v>
       </c>
       <c r="B47" t="n">
-        <v>5.010885681017723</v>
+        <v>5.044763133006941</v>
       </c>
       <c r="C47" t="n">
-        <v>18.68093782686892</v>
+        <v>18.53747801741599</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>27.06117178487238</v>
+        <v>27.04747547978573</v>
       </c>
       <c r="B48" t="n">
-        <v>21.25119139511819</v>
+        <v>21.04455052559879</v>
       </c>
       <c r="C48" t="n">
-        <v>33.1244923605856</v>
+        <v>33.05795484521368</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>22.86529376850036</v>
+        <v>22.99826433434714</v>
       </c>
       <c r="B49" t="n">
-        <v>17.22488674090715</v>
+        <v>17.3326328690722</v>
       </c>
       <c r="C49" t="n">
-        <v>29.87989315372546</v>
+        <v>29.68548834607849</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>31.27820259341136</v>
+        <v>31.18020859211034</v>
       </c>
       <c r="B50" t="n">
-        <v>23.37371021069986</v>
+        <v>23.95563841205932</v>
       </c>
       <c r="C50" t="n">
-        <v>39.69455576662519</v>
+        <v>39.43473436036884</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20.41334112868302</v>
+        <v>20.38992277549125</v>
       </c>
       <c r="B51" t="n">
-        <v>14.73161111311995</v>
+        <v>14.64651293459907</v>
       </c>
       <c r="C51" t="n">
-        <v>26.52771591005889</v>
+        <v>26.36253094699647</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13.55064454444528</v>
+        <v>13.56976321778885</v>
       </c>
       <c r="B52" t="n">
-        <v>9.274329393699764</v>
+        <v>9.392428169503807</v>
       </c>
       <c r="C52" t="n">
-        <v>17.94790766013142</v>
+        <v>17.83816703112846</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27.66837995601191</v>
+        <v>27.79721683453665</v>
       </c>
       <c r="B53" t="n">
-        <v>23.21121193913497</v>
+        <v>22.77454519396848</v>
       </c>
       <c r="C53" t="n">
-        <v>33.11482281375132</v>
+        <v>33.51112941012799</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28.88249032436406</v>
+        <v>29.00812814866874</v>
       </c>
       <c r="B54" t="n">
-        <v>21.87949191581011</v>
+        <v>22.04964256772849</v>
       </c>
       <c r="C54" t="n">
-        <v>37.99478780206971</v>
+        <v>37.90651784225873</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>28.93793483666256</v>
+        <v>28.96679446127066</v>
       </c>
       <c r="B55" t="n">
-        <v>22.15412641929207</v>
+        <v>22.00320938952697</v>
       </c>
       <c r="C55" t="n">
-        <v>36.52628798369908</v>
+        <v>36.73060989850141</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>14.29359399637084</v>
+        <v>14.50262704229279</v>
       </c>
       <c r="B56" t="n">
-        <v>9.60501360003142</v>
+        <v>9.644026968491946</v>
       </c>
       <c r="C56" t="n">
-        <v>19.69996906753504</v>
+        <v>19.69007915938051</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11.94005744474757</v>
+        <v>11.95629682071792</v>
       </c>
       <c r="B57" t="n">
-        <v>6.703424142258073</v>
+        <v>6.620721681949081</v>
       </c>
       <c r="C57" t="n">
-        <v>17.81235420082321</v>
+        <v>17.73387617593886</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>31.20303239528607</v>
+        <v>31.02747577862743</v>
       </c>
       <c r="B58" t="n">
-        <v>23.3088795648192</v>
+        <v>23.60316328057241</v>
       </c>
       <c r="C58" t="n">
-        <v>39.7034352673238</v>
+        <v>39.39524836420587</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>17.11562409212418</v>
+        <v>17.06546016391139</v>
       </c>
       <c r="B59" t="n">
-        <v>12.95589974193121</v>
+        <v>13.05427526007521</v>
       </c>
       <c r="C59" t="n">
-        <v>21.5560634048929</v>
+        <v>21.3638585302112</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>31.28558693401895</v>
+        <v>31.61753489926865</v>
       </c>
       <c r="B60" t="n">
-        <v>22.86202189645489</v>
+        <v>22.69417792274855</v>
       </c>
       <c r="C60" t="n">
-        <v>40.93858162913257</v>
+        <v>40.53601238892934</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>15.01407893317751</v>
+        <v>15.11296293230981</v>
       </c>
       <c r="B61" t="n">
-        <v>9.671506521559623</v>
+        <v>9.806438085000313</v>
       </c>
       <c r="C61" t="n">
-        <v>21.43035876149251</v>
+        <v>21.25231941398624</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>18.23050983570121</v>
+        <v>18.20385468471127</v>
       </c>
       <c r="B62" t="n">
-        <v>13.19393371081487</v>
+        <v>13.36583750647366</v>
       </c>
       <c r="C62" t="n">
-        <v>22.84993990994162</v>
+        <v>22.93417247425351</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>15.32259442640167</v>
+        <v>15.31517170986328</v>
       </c>
       <c r="B63" t="n">
-        <v>8.858120172054072</v>
+        <v>8.96982502303778</v>
       </c>
       <c r="C63" t="n">
-        <v>22.89958541563019</v>
+        <v>22.76488566537851</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>31.25089923162812</v>
+        <v>31.41445391729707</v>
       </c>
       <c r="B64" t="n">
-        <v>22.43896621348242</v>
+        <v>22.1938641061934</v>
       </c>
       <c r="C64" t="n">
-        <v>40.66516347034164</v>
+        <v>40.32325371330696</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>11.41281831917297</v>
+        <v>11.44779292206309</v>
       </c>
       <c r="B65" t="n">
-        <v>6.808154441900464</v>
+        <v>6.726251378379641</v>
       </c>
       <c r="C65" t="n">
-        <v>16.58420183221083</v>
+        <v>16.50833018745817</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>22.99501541757448</v>
+        <v>22.97041411049093</v>
       </c>
       <c r="B66" t="n">
-        <v>17.6676455848844</v>
+        <v>17.66206578859173</v>
       </c>
       <c r="C66" t="n">
-        <v>28.42869922338597</v>
+        <v>28.49334438955825</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>22.1013049271542</v>
+        <v>22.07311381888328</v>
       </c>
       <c r="B67" t="n">
-        <v>17.79677779216277</v>
+        <v>17.5288409348339</v>
       </c>
       <c r="C67" t="n">
-        <v>27.02873282552762</v>
+        <v>27.03361231410391</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>26.84637544373297</v>
+        <v>26.82506545755995</v>
       </c>
       <c r="B68" t="n">
-        <v>20.25465720582273</v>
+        <v>19.8985058540083</v>
       </c>
       <c r="C68" t="n">
-        <v>35.25750619444456</v>
+        <v>35.48769371613449</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.34366280737634</v>
+        <v>11.17996538183067</v>
       </c>
       <c r="B69" t="n">
-        <v>5.575032667104495</v>
+        <v>5.713358385685818</v>
       </c>
       <c r="C69" t="n">
-        <v>18.65764877085816</v>
+        <v>18.77789098213669</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>24.8997779607469</v>
+        <v>25.05754487370545</v>
       </c>
       <c r="B70" t="n">
-        <v>18.75148149616424</v>
+        <v>18.47472214930172</v>
       </c>
       <c r="C70" t="n">
-        <v>32.22094413184367</v>
+        <v>32.08634126392594</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>19.74798276541577</v>
+        <v>19.77501335341309</v>
       </c>
       <c r="B71" t="n">
-        <v>16.35510563574467</v>
+        <v>16.49828977680108</v>
       </c>
       <c r="C71" t="n">
-        <v>23.84403386767934</v>
+        <v>23.8552482296575</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>23.02415579428701</v>
+        <v>23.02678608992188</v>
       </c>
       <c r="B72" t="n">
-        <v>18.9659120963649</v>
+        <v>18.97100883837469</v>
       </c>
       <c r="C72" t="n">
-        <v>27.73380674854334</v>
+        <v>27.78141462492555</v>
       </c>
     </row>
   </sheetData>
